--- a/db/files/questionbank_excel_template.xlsx
+++ b/db/files/questionbank_excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\THESIS PROJECT\New folder\db\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD01CE7B-1EE1-4030-8013-41AE5A5466BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC2525D-1EF2-456F-B074-0B6C84FA2EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A490050-D95C-4686-9069-654ACD3A5727}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3A490050-D95C-4686-9069-654ACD3A5727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,15 +412,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B96D431-6B5A-43E2-8839-1E92F739E5AF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
